--- a/Tables/Character.xlsx
+++ b/Tables/Character.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>名称</t>
   </si>
@@ -55,18 +55,12 @@
     <t>10010010</t>
   </si>
   <si>
-    <t>Prefab/Character/10010</t>
-  </si>
-  <si>
     <t>斥候塔</t>
   </si>
   <si>
     <t>10010020</t>
   </si>
   <si>
-    <t>Prefab/Character/10020</t>
-  </si>
-  <si>
     <t>法师塔</t>
   </si>
   <si>
@@ -82,18 +76,12 @@
     <t>10020010</t>
   </si>
   <si>
-    <t>Prefab/Character/20010</t>
-  </si>
-  <si>
     <t>异能塔</t>
   </si>
   <si>
     <t>10020020</t>
   </si>
   <si>
-    <t>Prefab/Character/20020</t>
-  </si>
-  <si>
     <t>投石机</t>
   </si>
   <si>
@@ -109,18 +97,12 @@
     <t>10030010</t>
   </si>
   <si>
-    <t>Prefab/Character/30010</t>
-  </si>
-  <si>
     <t>投石矩阵</t>
   </si>
   <si>
     <t>10030020</t>
   </si>
   <si>
-    <t>Prefab/Character/30020</t>
-  </si>
-  <si>
     <t>看守</t>
   </si>
   <si>
@@ -136,16 +118,10 @@
     <t>10040010</t>
   </si>
   <si>
-    <t>Prefab/Character/40010</t>
-  </si>
-  <si>
     <t>殿堂</t>
   </si>
   <si>
     <t>10040020</t>
-  </si>
-  <si>
-    <t>Prefab/Character/40020</t>
   </si>
   <si>
     <t>辣鸡</t>
@@ -1136,7 +1112,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1199,216 +1175,216 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" ht="13.5" spans="1:3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" ht="13.5" spans="1:3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" ht="13.5" spans="1:3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" ht="13.5" spans="1:3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" ht="13.5" spans="1:3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" ht="13.5" spans="1:3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" ht="13.5" spans="1:3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" ht="13.5" spans="1:3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" ht="13.5" spans="1:3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" ht="13.5" spans="1:3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" ht="13.5" spans="1:3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" ht="13.5" spans="1:3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" ht="13.5" spans="1:3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" ht="13.5" spans="1:3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" ht="13.5" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" ht="13.5" spans="1:3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" ht="13.5" spans="1:3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" ht="13.5" spans="1:3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" ht="13.5" spans="1:3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>

--- a/Tables/Character.xlsx
+++ b/Tables/Character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17340"/>
+    <workbookView windowWidth="24225" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>名称</t>
   </si>
@@ -55,10 +55,16 @@
     <t>10010010</t>
   </si>
   <si>
+    <t>Prefab/Character/10010</t>
+  </si>
+  <si>
     <t>斥候塔</t>
   </si>
   <si>
     <t>10010020</t>
+  </si>
+  <si>
+    <t>Prefab/Character/10020</t>
   </si>
   <si>
     <t>法师塔</t>
@@ -1112,7 +1118,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1175,18 +1181,18 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" ht="13.5" spans="1:3">
@@ -1199,37 +1205,37 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" ht="13.5" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" ht="13.5" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+    </row>
+    <row r="11" ht="13.5" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" ht="13.5" spans="1:3">
@@ -1242,37 +1248,37 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" ht="13.5" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" ht="13.5" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+    </row>
+    <row r="16" ht="13.5" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" ht="13.5" spans="1:3">
@@ -1285,37 +1291,37 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" ht="13.5" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" ht="13.5" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+    </row>
+    <row r="21" ht="13.5" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" ht="13.5" spans="1:3">
@@ -1360,13 +1366,13 @@
     </row>
     <row r="30" ht="13.5" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" ht="13.5" spans="1:3">

--- a/Tables/Character.xlsx
+++ b/Tables/Character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="11940"/>
+    <workbookView windowHeight="17340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>名称</t>
   </si>
@@ -65,6 +65,15 @@
   </si>
   <si>
     <t>Prefab/Character/10020</t>
+  </si>
+  <si>
+    <t>狙击塔</t>
+  </si>
+  <si>
+    <t>10010100</t>
+  </si>
+  <si>
+    <t>Prefab/Character/10100</t>
   </si>
   <si>
     <t>法师塔</t>
@@ -1115,10 +1124,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1195,149 +1204,155 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" ht="13.5" spans="1:3">
+    <row r="7" spans="1:3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
     <row r="8" ht="13.5" spans="1:3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" ht="13.5" spans="1:3">
-      <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" ht="13.5" spans="1:3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" ht="13.5" spans="1:3">
+      <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" ht="13.5" spans="1:3">
-      <c r="A11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="2" t="s">
+    </row>
+    <row r="13" ht="13.5" spans="1:3">
+      <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" ht="13.5" spans="1:3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" ht="13.5" spans="1:3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="14" ht="13.5" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" ht="13.5" spans="1:3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" ht="13.5" spans="1:3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" ht="13.5" spans="1:3">
+      <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" ht="13.5" spans="1:3">
-      <c r="A16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="18" ht="13.5" spans="1:3">
+      <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" ht="13.5" spans="1:3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" ht="13.5" spans="1:3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="19" ht="13.5" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" ht="13.5" spans="1:3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" ht="13.5" spans="1:3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" ht="13.5" spans="1:3">
+      <c r="A22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" ht="13.5" spans="1:3">
-      <c r="A21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
+    </row>
+    <row r="23" ht="13.5" spans="1:3">
+      <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" ht="13.5" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" ht="13.5" spans="1:3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="24" ht="13.5" spans="1:3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="A24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="25" ht="13.5" spans="1:3">
       <c r="A25" s="2"/>
@@ -1365,15 +1380,9 @@
       <c r="C29" s="2"/>
     </row>
     <row r="30" ht="13.5" spans="1:3">
-      <c r="A30" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
     </row>
     <row r="31" ht="13.5" spans="1:3">
       <c r="A31" s="2"/>
@@ -1386,14 +1395,35 @@
       <c r="C32" s="2"/>
     </row>
     <row r="33" ht="13.5" spans="1:3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="A33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="34" ht="13.5" spans="1:3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
+    </row>
+    <row r="35" ht="13.5" spans="1:3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" ht="13.5" spans="1:3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" ht="13.5" spans="1:3">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Tables/Character.xlsx
+++ b/Tables/Character.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>名称</t>
   </si>
@@ -73,7 +73,10 @@
     <t>10010100</t>
   </si>
   <si>
-    <t>Prefab/Character/10100</t>
+    <t>毒箭塔</t>
+  </si>
+  <si>
+    <t>10010110</t>
   </si>
   <si>
     <t>法师塔</t>
@@ -1127,7 +1130,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1204,12 +1207,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" ht="13.5" spans="1:3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" ht="13.5" spans="1:3">
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1217,55 +1220,61 @@
         <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" ht="13.5" spans="1:3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" ht="13.5" spans="1:3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" ht="13.5" spans="1:3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
     <row r="12" ht="13.5" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" ht="13.5" spans="1:3">
       <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="14" ht="13.5" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" ht="13.5" spans="1:3">
@@ -1280,35 +1289,35 @@
     </row>
     <row r="17" ht="13.5" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" ht="13.5" spans="1:3">
       <c r="A18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="19" ht="13.5" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" ht="13.5" spans="1:3">
@@ -1323,35 +1332,35 @@
     </row>
     <row r="22" ht="13.5" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" ht="13.5" spans="1:3">
       <c r="A23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="24" ht="13.5" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" ht="13.5" spans="1:3">
@@ -1396,13 +1405,13 @@
     </row>
     <row r="33" ht="13.5" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" ht="13.5" spans="1:3">
